--- a/策划文档/【英雄绘卷】文案.xlsx
+++ b/策划文档/【英雄绘卷】文案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1140,9 +1140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1185,21 +1185,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1207,7 +1214,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1223,7 +1230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,18 +1243,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1260,7 +1268,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,30 +1285,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,6 +1300,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,7 +1329,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,19 +1479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,145 +1497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,26 +1547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1597,6 +1577,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1608,6 +1597,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1628,10 +1628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1640,133 +1640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2144,7 +2144,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
@@ -2350,15 +2350,15 @@
       <selection activeCell="A21" sqref="A21:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="2"/>
-    <col min="2" max="2" width="9.63333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="112.883333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.63333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="2"/>
+    <col min="2" max="2" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="112.87962962963" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="7" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88333333333333" style="2"/>
+    <col min="9" max="16384" width="8.87962962962963" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:8">
@@ -2751,7 +2751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="16" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="17" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="18" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="19" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="20" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="21" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="22" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="23" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="24" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="25" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="26" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="27" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="28" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="29" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="30" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="31" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="32" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="33" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="34" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="35" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="36" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="37" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="38" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="39" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="40" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="41" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="42" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="43" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="44" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="45" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="46" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="47" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="48" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="49" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="50" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="51" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="52" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="53" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="54" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="55" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="56" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="57" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="17.25" spans="1:8">
+    <row r="58" s="2" customFormat="1" ht="17.4" spans="1:8">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -3890,19 +3890,19 @@
   <sheetPr/>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1"/>
-    <col min="2" max="2" width="73.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88333333333333" style="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="1"/>
+    <col min="2" max="2" width="73.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.87962962962963" style="1"/>
     <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88333333333333" style="1"/>
+    <col min="7" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -4119,7 +4119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="16" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="17" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="18" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="19" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="20" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="21" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="27" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="30" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="33" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="36" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="37" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="39" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="40" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="41" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="42" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="43" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="44" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="45" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="46" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="47" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="48" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="49" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="50" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="51" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="52" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="53" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="54" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="55" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="56" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="57" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="58" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="59" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="60" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="61" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="62" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="63" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="64" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="65" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="66" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="67" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="68" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="69" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="70" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="71" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="72" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="73" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="74" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="75" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="76" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="77" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="78" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="79" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="80" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="81" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="82" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="83" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="84" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="85" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="86" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="87" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="88" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="89" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="90" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="91" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="92" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="93" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="94" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="95" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="96" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="97" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="98" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="99" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="100" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="101" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="102" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="103" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A103" s="2">
         <v>100</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="104" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="105" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="106" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="107" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="108" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="109" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A109" s="2">
         <v>106</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="110" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="111" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A111" s="2">
         <v>108</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="112" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A112" s="2">
         <v>109</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="113" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A113" s="2">
         <v>110</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" ht="17.25" spans="1:7">
+    <row r="114" s="1" customFormat="1" ht="17.4" spans="1:7">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -5532,10 +5532,10 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
